--- a/test-data/tdata.xlsx
+++ b/test-data/tdata.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC156786" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Gmail</t>
   </si>
@@ -58,6 +59,24 @@
   </si>
   <si>
     <t>tr</t>
+  </si>
+  <si>
+    <t>Username(valid)</t>
+  </si>
+  <si>
+    <t>Password(Invalid)</t>
+  </si>
+  <si>
+    <t>Validation Data</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -397,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +485,46 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>